--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7C1DBD-37E4-C743-9CED-A6502F759390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEE324B-DE38-074A-9D64-3F2FA03CAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="460" windowWidth="20920" windowHeight="16260" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="6200" yWindow="460" windowWidth="22000" windowHeight="16260" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -90,9 +90,6 @@
     <t>The Securities and Exchange Commission charged BlockFi Lending LLC with failing to register the offers and sales of its retail crypto lending product, and also charged BlockFi with violating the registration provisions of the Investment Company Act of 1940.</t>
   </si>
   <si>
-    <t>Statute</t>
-  </si>
-  <si>
     <t>SEC v. Garcia</t>
   </si>
   <si>
@@ -610,12 +607,111 @@
   </si>
   <si>
     <t>The Commission charged Shavers and his company with defrauding investors in a bitcoin-denominated Ponzi scheme, raising more than 700,000 bitcoins in principal investments from BTCST investors, and falsely promising of up to 7% weekly returns based on BTCST’s purported bitcoin market arbitrage activity.</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Securities Act of 1933</t>
+  </si>
+  <si>
+    <t>Securities Exchange Act of 1934</t>
+  </si>
+  <si>
+    <t>Fort Worth</t>
+  </si>
+  <si>
+    <t>SEC Office</t>
+  </si>
+  <si>
+    <t>NSG</t>
+  </si>
+  <si>
+    <t>NASGO</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Block Bits Fund</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>MCC International Corp.</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Ormeus Coin</t>
+  </si>
+  <si>
+    <t>Ethereum</t>
+  </si>
+  <si>
+    <t>Southern New York</t>
+  </si>
+  <si>
+    <t>Northern California</t>
+  </si>
+  <si>
+    <t>Ormeus</t>
+  </si>
+  <si>
+    <t>BlockFi</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Gold Hawgs</t>
+  </si>
+  <si>
+    <t>Crowd Machine</t>
+  </si>
+  <si>
+    <t>CMCT</t>
+  </si>
+  <si>
+    <t>Denaro</t>
+  </si>
+  <si>
+    <t>DNO</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Social Profimatic and MyMicroProfits.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -651,12 +747,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -672,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,6 +788,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -995,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,46 +1119,60 @@
     <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="6" width="15.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="13.1640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="15.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="17.83203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="21" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>44679</v>
       </c>
@@ -1056,8 +1182,38 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44679</v>
       </c>
@@ -1067,8 +1223,38 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>44658</v>
       </c>
@@ -1078,8 +1264,38 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="7">
+        <v>11300000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44628</v>
       </c>
@@ -1089,126 +1305,306 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="7">
+        <v>124000000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44606</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44579</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="7">
+        <v>400000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44567</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="7">
+        <v>40700000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44532</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="7">
+        <v>7000000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44518</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3600000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44452</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44447</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>44440</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44440</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44417</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44414</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1216,10 +1612,10 @@
         <v>44412</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1227,10 +1623,10 @@
         <v>44391</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,10 +1634,10 @@
         <v>44369</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1249,10 +1645,10 @@
         <v>44362</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,10 +1656,10 @@
         <v>43847</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1271,10 +1667,10 @@
         <v>44358</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,10 +1678,10 @@
         <v>44284</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1293,10 +1689,10 @@
         <v>44260</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,10 +1700,10 @@
         <v>44244</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,10 +1711,10 @@
         <v>44228</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1326,10 +1722,10 @@
         <v>44211</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1337,10 +1733,10 @@
         <v>44188</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,10 +1744,10 @@
         <v>44187</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1359,10 +1755,10 @@
         <v>44187</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1370,10 +1766,10 @@
         <v>44186</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1381,10 +1777,10 @@
         <v>44174</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1392,10 +1788,10 @@
         <v>44109</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1403,10 +1799,10 @@
         <v>44104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1414,10 +1810,10 @@
         <v>44099</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1425,10 +1821,10 @@
         <v>44089</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1436,10 +1832,10 @@
         <v>44084</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1447,10 +1843,10 @@
         <v>44061</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1458,10 +1854,10 @@
         <v>44056</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1469,10 +1865,10 @@
         <v>44007</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1480,10 +1876,10 @@
         <v>43998</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1491,10 +1887,10 @@
         <v>43979</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1502,10 +1898,10 @@
         <v>43958</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1513,10 +1909,10 @@
         <v>43944</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1524,10 +1920,10 @@
         <v>43910</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1535,10 +1931,10 @@
         <v>43888</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1546,10 +1942,10 @@
         <v>43880</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1557,10 +1953,10 @@
         <v>43872</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1568,10 +1964,10 @@
         <v>43851</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1579,10 +1975,10 @@
         <v>43817</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1590,10 +1986,10 @@
         <v>43810</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1601,10 +1997,10 @@
         <v>43749</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1612,10 +2008,10 @@
         <v>43738</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1623,10 +2019,10 @@
         <v>43728</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1634,10 +2030,10 @@
         <v>43726</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1645,10 +2041,10 @@
         <v>43706</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1656,10 +2052,10 @@
         <v>43697</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1667,10 +2063,10 @@
         <v>43689</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1678,10 +2074,10 @@
         <v>43689</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1689,10 +2085,10 @@
         <v>43621</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1700,10 +2096,10 @@
         <v>43196</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1711,10 +2107,10 @@
         <v>43620</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1722,10 +2118,10 @@
         <v>43607</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1733,10 +2129,10 @@
         <v>43599</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1744,10 +2140,10 @@
         <v>43598</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1755,10 +2151,10 @@
         <v>43556</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1766,10 +2162,10 @@
         <v>43516</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1777,10 +2173,10 @@
         <v>43441</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1788,10 +2184,10 @@
         <v>43433</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1799,10 +2195,10 @@
         <v>43433</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1810,10 +2206,10 @@
         <v>43420</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1821,10 +2217,10 @@
         <v>43420</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1832,10 +2228,10 @@
         <v>43412</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1843,10 +2239,10 @@
         <v>43384</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1854,10 +2250,10 @@
         <v>43370</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1865,10 +2261,10 @@
         <v>43354</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1876,10 +2272,10 @@
         <v>43354</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1887,10 +2283,10 @@
         <v>43326</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1898,10 +2294,10 @@
         <v>43283</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1909,10 +2305,10 @@
         <v>43242</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1920,10 +2316,10 @@
         <v>43210</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1931,10 +2327,10 @@
         <v>43192</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1942,10 +2338,10 @@
         <v>43152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1953,10 +2349,10 @@
         <v>43125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1964,10 +2360,10 @@
         <v>43445</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1975,10 +2371,10 @@
         <v>43080</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1986,10 +2382,10 @@
         <v>43070</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1997,10 +2393,10 @@
         <v>43007</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2008,10 +2404,10 @@
         <v>42941</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2019,10 +2415,10 @@
         <v>42916</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2030,10 +2426,10 @@
         <v>42562</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2041,10 +2437,10 @@
         <v>42339</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2052,10 +2448,10 @@
         <v>42172</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2063,10 +2459,10 @@
         <v>41981</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2074,10 +2470,10 @@
         <v>41793</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2085,10 +2481,10 @@
         <v>41478</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEE324B-DE38-074A-9D64-3F2FA03CAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E69A3-E567-5C44-AC28-75ED2EE0CF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="460" windowWidth="22000" windowHeight="16260" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="7480" yWindow="460" windowWidth="20920" windowHeight="15100" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -703,6 +703,27 @@
   </si>
   <si>
     <t>Social Profimatic and MyMicroProfits.com</t>
+  </si>
+  <si>
+    <t>GTV Media Group Inc.</t>
+  </si>
+  <si>
+    <t>G-Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York </t>
+  </si>
+  <si>
+    <t>RvT tokens</t>
+  </si>
+  <si>
+    <t>Rivetz Corp.</t>
+  </si>
+  <si>
+    <t>Unregistered Offering</t>
+  </si>
+  <si>
+    <t>BitConnect</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1131,7 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,15 +1140,15 @@
     <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="15.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="17.83203125" style="7" customWidth="1"/>
     <col min="11" max="11" width="21" style="2" customWidth="1"/>
     <col min="12" max="12" width="29" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1522,7 +1543,7 @@
       <c r="G10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>222</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1551,6 +1572,33 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="7">
+        <v>539000000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1562,6 +1610,33 @@
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="7">
+        <v>18000000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
@@ -1573,6 +1648,33 @@
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1583,6 +1685,33 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E69A3-E567-5C44-AC28-75ED2EE0CF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5F547-C1E5-D44F-859B-9F1F3D90C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="460" windowWidth="20920" windowHeight="15100" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="11740" yWindow="460" windowWidth="17060" windowHeight="16000" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="240">
   <si>
     <t>Date</t>
   </si>
@@ -724,6 +724,36 @@
   </si>
   <si>
     <t>BitConnect</t>
+  </si>
+  <si>
+    <t>Settlment</t>
+  </si>
+  <si>
+    <t>Unregistered Exchange</t>
+  </si>
+  <si>
+    <t>Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Poloniex</t>
+  </si>
+  <si>
+    <t>DeFi Money Market</t>
+  </si>
+  <si>
+    <t>mTokens</t>
+  </si>
+  <si>
+    <t>UULA</t>
+  </si>
+  <si>
+    <t>Uulala, Inc.</t>
+  </si>
+  <si>
+    <t>Failed Disclosure</t>
+  </si>
+  <si>
+    <t>Coinschedule</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1161,7 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,6 +1602,9 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>198</v>
       </c>
@@ -1610,6 +1643,9 @@
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>228</v>
       </c>
@@ -1648,6 +1684,9 @@
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>228</v>
       </c>
@@ -1686,6 +1725,9 @@
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>228</v>
       </c>
@@ -1724,6 +1766,36 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1735,8 +1807,38 @@
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44412</v>
       </c>
@@ -1746,8 +1848,38 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="7">
+        <v>9000000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44391</v>
       </c>
@@ -1757,8 +1889,38 @@
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" s="7">
+        <v>197000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44369</v>
       </c>
@@ -1769,7 +1931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44362</v>
       </c>
@@ -1780,7 +1942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43847</v>
       </c>
@@ -1791,7 +1953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44358</v>
       </c>
@@ -1802,7 +1964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>44284</v>
       </c>
@@ -1813,7 +1975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44260</v>
       </c>
@@ -1824,7 +1986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44244</v>
       </c>
@@ -1835,7 +1997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44228</v>
       </c>
@@ -1846,7 +2008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44211</v>
       </c>
@@ -1857,7 +2019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44188</v>
       </c>
@@ -1868,7 +2030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44187</v>
       </c>
@@ -1879,7 +2041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44187</v>
       </c>
@@ -1890,7 +2052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44186</v>
       </c>
@@ -1901,7 +2063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44174</v>
       </c>

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5F547-C1E5-D44F-859B-9F1F3D90C0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C1CC58-38F8-754D-B7B2-F82D683B7A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="460" windowWidth="17060" windowHeight="16000" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="11900" yWindow="460" windowWidth="16900" windowHeight="15200" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="265">
   <si>
     <t>Date</t>
   </si>
@@ -639,9 +639,6 @@
     <t>Civil</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>Block Bits Fund</t>
   </si>
   <si>
@@ -754,6 +751,84 @@
   </si>
   <si>
     <t>Coinschedule</t>
+  </si>
+  <si>
+    <t>LOCIcoins</t>
+  </si>
+  <si>
+    <t>Loci, Inc.</t>
+  </si>
+  <si>
+    <t>CG Blockchain, Inc. and BCT Inc</t>
+  </si>
+  <si>
+    <t>Unregistered Offering and Fraud</t>
+  </si>
+  <si>
+    <t>BCT</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>Apis</t>
+  </si>
+  <si>
+    <t>Apis Capital</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>LBRY</t>
+  </si>
+  <si>
+    <t>LBRY, Inc.</t>
+  </si>
+  <si>
+    <t>Crypto Traders Management, LLC</t>
+  </si>
+  <si>
+    <t>CTM</t>
+  </si>
+  <si>
+    <t>CSD</t>
+  </si>
+  <si>
+    <t>Coinseed</t>
+  </si>
+  <si>
+    <t>B2G</t>
+  </si>
+  <si>
+    <t>Bitcoiin2Gen</t>
+  </si>
+  <si>
+    <t>Civil and Criminal</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>Virgil Capital</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>Ripple</t>
   </si>
 </sst>
 </file>
@@ -763,7 +838,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,6 +869,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -831,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -843,6 +924,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1160,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,12 +1252,12 @@
     <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="17.83203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="7" customWidth="1"/>
     <col min="11" max="11" width="21" style="2" customWidth="1"/>
     <col min="12" max="12" width="29" style="2" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" style="2" customWidth="1"/>
@@ -1281,16 +1363,16 @@
         <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J3" s="7">
         <v>1000000</v>
@@ -1302,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1316,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>198</v>
@@ -1325,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J4" s="7">
         <v>11300000</v>
@@ -1343,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1357,22 +1439,22 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="J5" s="7">
         <v>124000000</v>
@@ -1384,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1407,13 +1489,13 @@
         <v>200</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J6" s="7">
         <v>100000000</v>
@@ -1425,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1439,7 +1521,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>198</v>
@@ -1448,13 +1530,13 @@
         <v>200</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J7" s="7">
         <v>400000</v>
@@ -1466,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1489,13 +1571,13 @@
         <v>200</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J8" s="7">
         <v>40700000</v>
@@ -1507,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1521,7 +1603,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>198</v>
@@ -1530,13 +1612,13 @@
         <v>200</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J9" s="7">
         <v>7000000</v>
@@ -1548,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1562,22 +1644,22 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J10" s="7">
         <v>3600000</v>
@@ -1589,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1603,7 +1685,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>198</v>
@@ -1612,13 +1694,13 @@
         <v>200</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J11" s="7">
         <v>539000000</v>
@@ -1630,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1644,22 +1726,22 @@
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J12" s="7">
         <v>18000000</v>
@@ -1671,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1685,22 +1767,22 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J13" s="7">
         <v>2000000</v>
@@ -1712,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1726,22 +1808,22 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J14" s="7">
         <v>2000000</v>
@@ -1753,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1767,22 +1849,22 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J15" s="7">
         <v>10000000</v>
@@ -1794,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1811,19 +1893,19 @@
         <v>199</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J16" s="7">
         <v>30000000</v>
@@ -1835,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1849,22 +1931,22 @@
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J17" s="7">
         <v>9000000</v>
@@ -1876,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1893,19 +1975,19 @@
         <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J18" s="7">
         <v>197000</v>
@@ -1917,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1930,6 +2012,36 @@
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="7">
+        <v>7600000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1941,6 +2053,36 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1952,6 +2094,36 @@
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1963,6 +2135,36 @@
       <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" s="7">
+        <v>20000000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -1974,6 +2176,36 @@
       <c r="C23" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" s="7">
+        <v>11000000</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1985,6 +2217,36 @@
       <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" s="7">
+        <v>6900000</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1996,6 +2258,36 @@
       <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" s="7">
+        <v>141410</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -2007,6 +2299,36 @@
       <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="7">
+        <v>11000000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -2018,6 +2340,36 @@
       <c r="C27" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -2029,6 +2381,36 @@
       <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -2040,6 +2422,36 @@
       <c r="C29" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -2050,6 +2462,36 @@
       </c>
       <c r="C30" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1300000000</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fortiorb/Desktop/Fortior/Grants/Solana/Solana-Compliance-main/Database/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C1CC58-38F8-754D-B7B2-F82D683B7A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F69CF-C44A-2247-9F06-FD708AF1BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="460" windowWidth="16900" windowHeight="15200" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="11900" yWindow="500" windowWidth="16900" windowHeight="15200" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="268">
   <si>
     <t>Date</t>
   </si>
@@ -723,9 +723,6 @@
     <t>BitConnect</t>
   </si>
   <si>
-    <t>Settlment</t>
-  </si>
-  <si>
     <t>Unregistered Exchange</t>
   </si>
   <si>
@@ -829,6 +826,18 @@
   </si>
   <si>
     <t>Ripple</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>New York and Philadelphia</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Oyster Protocol</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,7 +1269,7 @@
     <col min="10" max="10" width="20.5" style="7" customWidth="1"/>
     <col min="11" max="11" width="21" style="2" customWidth="1"/>
     <col min="12" max="12" width="29" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1363,7 +1372,7 @@
         <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>202</v>
@@ -1445,7 +1454,7 @@
         <v>198</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>211</v>
@@ -1650,7 +1659,7 @@
         <v>198</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>202</v>
@@ -1849,10 +1858,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>200</v>
@@ -1861,7 +1870,7 @@
         <v>202</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>202</v>
@@ -1876,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1899,10 +1908,10 @@
         <v>200</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>208</v>
@@ -1940,10 +1949,10 @@
         <v>200</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>202</v>
@@ -1975,7 +1984,7 @@
         <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>200</v>
@@ -1984,7 +1993,7 @@
         <v>202</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>202</v>
@@ -1999,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2022,10 +2031,10 @@
         <v>200</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>208</v>
@@ -2040,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2057,16 +2066,16 @@
         <v>199</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>202</v>
@@ -2098,16 +2107,16 @@
         <v>206</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>202</v>
@@ -2122,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2145,10 +2154,10 @@
         <v>200</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>208</v>
@@ -2163,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2186,10 +2195,10 @@
         <v>200</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>208</v>
@@ -2204,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2227,10 +2236,10 @@
         <v>200</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>202</v>
@@ -2268,10 +2277,10 @@
         <v>200</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>202</v>
@@ -2303,16 +2312,16 @@
         <v>206</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>208</v>
@@ -2368,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2391,7 +2400,7 @@
         <v>200</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>60</v>
@@ -2409,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2435,7 +2444,7 @@
         <v>202</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>202</v>
@@ -2450,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2473,13 +2482,13 @@
         <v>200</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J30" s="7">
         <v>1300000000</v>
@@ -2504,6 +2513,36 @@
       <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" s="7">
+        <v>27600000</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -2515,8 +2554,38 @@
       <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1300000</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>44109</v>
       </c>
@@ -2526,8 +2595,38 @@
       <c r="C33" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" s="7">
+        <v>23100000</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44104</v>
       </c>
@@ -2538,7 +2637,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>44099</v>
       </c>
@@ -2549,7 +2648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44089</v>
       </c>
@@ -2560,7 +2659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>44084</v>
       </c>
@@ -2571,7 +2670,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>44061</v>
       </c>
@@ -2582,7 +2681,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>44056</v>
       </c>
@@ -2593,7 +2692,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>44007</v>
       </c>
@@ -2604,7 +2703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43998</v>
       </c>
@@ -2615,7 +2714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43979</v>
       </c>
@@ -2626,7 +2725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43958</v>
       </c>
@@ -2637,7 +2736,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43944</v>
       </c>
@@ -2648,7 +2747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43910</v>
       </c>
@@ -2659,7 +2758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43888</v>
       </c>
@@ -2670,7 +2769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43880</v>
       </c>
@@ -2681,7 +2780,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43872</v>
       </c>

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fortiorb/Desktop/Fortior/Grants/Solana/Solana-Compliance-main/Database/Enforcement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fortiorb/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F69CF-C44A-2247-9F06-FD708AF1BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D1FF71-B55E-BE43-A98A-1FF634D9C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11900" yWindow="500" windowWidth="16900" windowHeight="15200" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="277">
   <si>
     <t>Date</t>
   </si>
@@ -838,6 +838,33 @@
   </si>
   <si>
     <t>Oyster Protocol</t>
+  </si>
+  <si>
+    <t>Salt Blockchain, Inc.</t>
+  </si>
+  <si>
+    <t>SALT</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>SCRL</t>
+  </si>
+  <si>
+    <t>UKG</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>FLiK and CoinSpark</t>
+  </si>
+  <si>
+    <t>Northern Georgia</t>
+  </si>
+  <si>
+    <t>FLiK</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2522,7 +2549,7 @@
       <c r="F31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>264</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -2636,6 +2663,36 @@
       <c r="C34" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="7">
+        <v>47000000</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -2647,6 +2704,36 @@
       <c r="C35" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="7">
+        <v>2400000</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -2658,6 +2745,36 @@
       <c r="C36" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="7">
+        <v>6100000</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -2668,6 +2785,36 @@
       </c>
       <c r="C37" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J37" s="7">
+        <v>2200000</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fortiorb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D1FF71-B55E-BE43-A98A-1FF634D9C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571AD762-D5E1-6345-8022-CC8ABE569518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="500" windowWidth="16900" windowHeight="15200" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="10140" yWindow="480" windowWidth="18660" windowHeight="15220" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="299">
   <si>
     <t>Date</t>
   </si>
@@ -865,6 +865,72 @@
   </si>
   <si>
     <t>FLiK</t>
+  </si>
+  <si>
+    <t>AirBit Club</t>
+  </si>
+  <si>
+    <t>Unregistered Broker-Dealer</t>
+  </si>
+  <si>
+    <t>Boon.Tech</t>
+  </si>
+  <si>
+    <t>Boon Coins</t>
+  </si>
+  <si>
+    <t>ABTC</t>
+  </si>
+  <si>
+    <t>NAC Foundation</t>
+  </si>
+  <si>
+    <t>Hvizdzak Capital Management LLC</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>BitClave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil </t>
+  </si>
+  <si>
+    <t>Salt Lake</t>
+  </si>
+  <si>
+    <t>MMT Distributions, LLC</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>Dropil, Inc.</t>
+  </si>
+  <si>
+    <t>Western District of Texas</t>
+  </si>
+  <si>
+    <t>Meta 1</t>
+  </si>
+  <si>
+    <t>Pramana Capital Inc.</t>
+  </si>
+  <si>
+    <t>Anti-touting</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Q3 I</t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2827,6 +2893,36 @@
       <c r="C38" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J38" s="7">
+        <v>705000</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -2838,6 +2934,36 @@
       <c r="C39" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J39" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -2849,6 +2975,36 @@
       <c r="C40" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" s="7">
+        <v>5600000</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -2860,6 +3016,36 @@
       <c r="C41" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J41" s="7">
+        <v>31000000</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -2871,6 +3057,36 @@
       <c r="C42" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J42" s="7">
+        <v>25500000</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -2882,6 +3098,36 @@
       <c r="C43" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J43" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -2893,6 +3139,36 @@
       <c r="C44" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1800000</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -2904,6 +3180,36 @@
       <c r="C45" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J45" s="7">
+        <v>4300000</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
@@ -2915,6 +3221,36 @@
       <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
@@ -2926,6 +3262,36 @@
       <c r="C47" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J47" s="7">
+        <v>45000000</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
@@ -2936,6 +3302,36 @@
       </c>
       <c r="C48" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J48" s="7">
+        <v>33000000</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571AD762-D5E1-6345-8022-CC8ABE569518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC8175-FE3E-D847-BAC4-B2864A892282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="480" windowWidth="18660" windowHeight="15220" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="8960" yWindow="460" windowWidth="18580" windowHeight="16120" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="311">
   <si>
     <t>Date</t>
   </si>
@@ -931,6 +931,42 @@
   </si>
   <si>
     <t>Q3 I</t>
+  </si>
+  <si>
+    <t>Opporty International, Inc.</t>
+  </si>
+  <si>
+    <t>OPP</t>
+  </si>
+  <si>
+    <t>BCOT</t>
+  </si>
+  <si>
+    <t>UnitedData, Inc.</t>
+  </si>
+  <si>
+    <t>Blockchain of Things Inc. </t>
+  </si>
+  <si>
+    <t>Shopin</t>
+  </si>
+  <si>
+    <t>Telegram Group Inc.</t>
+  </si>
+  <si>
+    <t>Grams</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>FMT</t>
+  </si>
+  <si>
+    <t>Fantasy Market</t>
   </si>
 </sst>
 </file>
@@ -1344,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3334,7 +3370,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43851</v>
       </c>
@@ -3344,8 +3380,38 @@
       <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" s="7">
+        <v>600000</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43817</v>
       </c>
@@ -3355,8 +3421,38 @@
       <c r="C50" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J50" s="7">
+        <v>13000000</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43810</v>
       </c>
@@ -3366,8 +3462,38 @@
       <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J51" s="7">
+        <v>42500000</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43749</v>
       </c>
@@ -3377,8 +3503,38 @@
       <c r="C52" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1700000000</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>43738</v>
       </c>
@@ -3388,8 +3544,38 @@
       <c r="C53" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" s="7">
+        <v>24000000</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43728</v>
       </c>
@@ -3399,8 +3585,38 @@
       <c r="C54" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" s="7">
+        <v>63000</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43726</v>
       </c>
@@ -3411,7 +3627,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43706</v>
       </c>
@@ -3422,7 +3638,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>43697</v>
       </c>
@@ -3433,7 +3649,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43689</v>
       </c>
@@ -3444,7 +3660,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43689</v>
       </c>
@@ -3455,7 +3671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>43621</v>
       </c>
@@ -3466,7 +3682,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43196</v>
       </c>
@@ -3477,7 +3693,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43620</v>
       </c>
@@ -3488,7 +3704,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>43607</v>
       </c>
@@ -3499,7 +3715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>43599</v>
       </c>

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC8175-FE3E-D847-BAC4-B2864A892282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C484EC9-36C0-E048-B1E1-EA0BA77B659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="460" windowWidth="18580" windowHeight="16120" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="11280" yWindow="460" windowWidth="16260" windowHeight="16120" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="316">
   <si>
     <t>Date</t>
   </si>
@@ -967,6 +967,21 @@
   </si>
   <si>
     <t>Fantasy Market</t>
+  </si>
+  <si>
+    <t>ICOS</t>
+  </si>
+  <si>
+    <t>ICOBox</t>
+  </si>
+  <si>
+    <t>Bitqyck Inc.</t>
+  </si>
+  <si>
+    <t>Unregistered Offering and Exchange</t>
+  </si>
+  <si>
+    <t>HLTH</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,7 +1405,7 @@
     <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="30.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
@@ -3626,6 +3641,36 @@
       <c r="C55" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J55" s="7">
+        <v>14600000</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
@@ -3637,6 +3682,36 @@
       <c r="C56" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J56" s="7">
+        <v>13000000</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
@@ -3648,6 +3723,36 @@
       <c r="C57" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J57" s="7">
+        <v>268998</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
@@ -3658,6 +3763,36 @@
       </c>
       <c r="C58" s="2" t="s">
         <v>118</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J58" s="7">
+        <v>6300000</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C484EC9-36C0-E048-B1E1-EA0BA77B659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0063EBA-9B65-FD4D-A7C8-0729E01F182E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="460" windowWidth="16260" windowHeight="16120" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="4460" yWindow="460" windowWidth="23680" windowHeight="16120" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="319">
   <si>
     <t>Date</t>
   </si>
@@ -982,6 +982,15 @@
   </si>
   <si>
     <t>HLTH</t>
+  </si>
+  <si>
+    <t>VERI</t>
+  </si>
+  <si>
+    <t>Veritaseum, Inc. and Veritaseum, LLC</t>
+  </si>
+  <si>
+    <t>Longfin Corp.</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3805,6 +3814,36 @@
       <c r="C59" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" s="7">
+        <v>14800000</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
@@ -3816,6 +3855,36 @@
       <c r="C60" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J60" s="7">
+        <v>27000000</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
@@ -3826,6 +3895,36 @@
       </c>
       <c r="C61" s="2" t="s">
         <v>123</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" s="7">
+        <v>27000000</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0063EBA-9B65-FD4D-A7C8-0729E01F182E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D834A18-9C3A-6343-B131-19EA672CF846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="460" windowWidth="23680" windowHeight="16120" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="10080" yWindow="460" windowWidth="18660" windowHeight="15960" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="334">
   <si>
     <t>Date</t>
   </si>
@@ -991,6 +991,51 @@
   </si>
   <si>
     <t>Longfin Corp.</t>
+  </si>
+  <si>
+    <t>Kik Interactive Inc.</t>
+  </si>
+  <si>
+    <t>Kin</t>
+  </si>
+  <si>
+    <t>IPro Solutions LLC and IPro Network LLC</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>NextBlock Global Ltd.</t>
+  </si>
+  <si>
+    <t>Argyle Coin, LLC</t>
+  </si>
+  <si>
+    <t>Argyle</t>
+  </si>
+  <si>
+    <t>Mutual Coin Fund LLC</t>
+  </si>
+  <si>
+    <t>GLA</t>
+  </si>
+  <si>
+    <t>Centra Tech Inc.</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>Paragon Coin Inc.</t>
+  </si>
+  <si>
+    <t>Arifox</t>
+  </si>
+  <si>
+    <t>AirTokens</t>
+  </si>
+  <si>
+    <t>ParagonCoin</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,6 +1132,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1404,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1462,7 @@
     <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="31.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="20.5" style="7" customWidth="1"/>
@@ -3937,6 +3983,36 @@
       <c r="C62" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J62" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
@@ -3948,6 +4024,36 @@
       <c r="C63" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J63" s="7">
+        <v>26000000</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
@@ -3959,8 +4065,38 @@
       <c r="C64" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" s="7">
+        <v>18400000</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>43598</v>
       </c>
@@ -3970,8 +4106,38 @@
       <c r="C65" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43556</v>
       </c>
@@ -3981,8 +4147,38 @@
       <c r="C66" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J66" s="7">
+        <v>567000</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>43516</v>
       </c>
@@ -3992,8 +4188,38 @@
       <c r="C67" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J67" s="7">
+        <v>12700000</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>43441</v>
       </c>
@@ -4003,8 +4229,38 @@
       <c r="C68" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J68" s="7">
+        <v>608491</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>43433</v>
       </c>
@@ -4014,8 +4270,38 @@
       <c r="C69" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J69" s="7">
+        <v>300000</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>43433</v>
       </c>
@@ -4025,8 +4311,38 @@
       <c r="C70" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J70" s="7">
+        <v>50000</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43420</v>
       </c>
@@ -4036,8 +4352,38 @@
       <c r="C71" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43420</v>
       </c>
@@ -4047,8 +4393,38 @@
       <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J72" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>43412</v>
       </c>
@@ -4059,7 +4435,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43384</v>
       </c>
@@ -4070,7 +4446,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43370</v>
       </c>
@@ -4081,7 +4457,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>43354</v>
       </c>
@@ -4092,7 +4468,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>43354</v>
       </c>
@@ -4103,7 +4479,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43326</v>
       </c>
@@ -4114,7 +4490,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>43283</v>
       </c>
@@ -4125,7 +4501,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43242</v>
       </c>

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D834A18-9C3A-6343-B131-19EA672CF846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2C846-9BA4-614B-BDF2-9E071973986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="460" windowWidth="18660" windowHeight="15960" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
+    <workbookView xWindow="4040" yWindow="460" windowWidth="24620" windowHeight="15180" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="360">
   <si>
     <t>Date</t>
   </si>
@@ -1036,6 +1036,84 @@
   </si>
   <si>
     <t>ParagonCoin</t>
+  </si>
+  <si>
+    <t>EtherDelta</t>
+  </si>
+  <si>
+    <t>Blockvest, LLC</t>
+  </si>
+  <si>
+    <t>1pool Ltd.</t>
+  </si>
+  <si>
+    <t>TokenLot LLC</t>
+  </si>
+  <si>
+    <t>Crypto Asset Management LP</t>
+  </si>
+  <si>
+    <t>TOM</t>
+  </si>
+  <si>
+    <t>Tomahawk Exploration LLC</t>
+  </si>
+  <si>
+    <t>UBI Blockchain Internet Ltd.</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>Titanium Blockchain Infrastructure Services Inc.</t>
+  </si>
+  <si>
+    <t>CTR Token</t>
+  </si>
+  <si>
+    <t>Centra Tech. Inc.</t>
+  </si>
+  <si>
+    <t>BitFunder</t>
+  </si>
+  <si>
+    <t>AriseBank</t>
+  </si>
+  <si>
+    <t>AriseCoin</t>
+  </si>
+  <si>
+    <t>Mun</t>
+  </si>
+  <si>
+    <t>Munchee Inc.</t>
+  </si>
+  <si>
+    <t>PlexCoin</t>
+  </si>
+  <si>
+    <t>PlexCorps</t>
+  </si>
+  <si>
+    <t>Recoing Group Foundation and Diamond Reserve Club</t>
+  </si>
+  <si>
+    <t>Recoin</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>The DAO</t>
+  </si>
+  <si>
+    <t>Store Inc. and Bar Works Inc.</t>
+  </si>
+  <si>
+    <t>SecondMarket, Inc. and Bitcoin Investment Trust</t>
+  </si>
+  <si>
+    <t>GAW Miners and ZenMiner</t>
   </si>
 </sst>
 </file>
@@ -1450,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,7 +1541,7 @@
     <col min="5" max="5" width="31.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="20.5" style="7" customWidth="1"/>
     <col min="11" max="11" width="21" style="2" customWidth="1"/>
@@ -4434,6 +4512,36 @@
       <c r="C73" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J73" s="7">
+        <v>388000000</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -4445,6 +4553,36 @@
       <c r="C74" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J74" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
@@ -4456,6 +4594,36 @@
       <c r="C75" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
@@ -4467,6 +4635,36 @@
       <c r="C76" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J76" s="7">
+        <v>516000</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
@@ -4478,6 +4676,36 @@
       <c r="C77" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J77" s="7">
+        <v>3600000</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
@@ -4489,6 +4717,36 @@
       <c r="C78" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J78" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
@@ -4500,6 +4758,36 @@
       <c r="C79" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J79" s="7">
+        <v>1400000</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
@@ -4511,8 +4799,38 @@
       <c r="C80" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J80" s="7">
+        <v>21000000</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43210</v>
       </c>
@@ -4522,8 +4840,38 @@
       <c r="C81" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J81" s="7">
+        <v>32000000</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43192</v>
       </c>
@@ -4533,8 +4881,38 @@
       <c r="C82" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J82" s="7">
+        <v>32000000</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43152</v>
       </c>
@@ -4544,8 +4922,38 @@
       <c r="C83" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J83" s="7">
+        <v>501728</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43125</v>
       </c>
@@ -4555,8 +4963,38 @@
       <c r="C84" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J84" s="7">
+        <v>600000</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2">
+        <v>1</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43445</v>
       </c>
@@ -4566,8 +5004,38 @@
       <c r="C85" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J85" s="7">
+        <v>2700000</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43080</v>
       </c>
@@ -4577,8 +5045,38 @@
       <c r="C86" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J86" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43070</v>
       </c>
@@ -4588,8 +5086,38 @@
       <c r="C87" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J87" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43007</v>
       </c>
@@ -4599,8 +5127,38 @@
       <c r="C88" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J88" s="7">
+        <v>300000</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>42941</v>
       </c>
@@ -4610,8 +5168,38 @@
       <c r="C89" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J89" s="7">
+        <v>150000000</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1</v>
+      </c>
+      <c r="L89" s="2">
+        <v>1</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>42916</v>
       </c>
@@ -4621,8 +5209,38 @@
       <c r="C90" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J90" s="7">
+        <v>37000000</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>42562</v>
       </c>
@@ -4632,8 +5250,38 @@
       <c r="C91" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J91" s="7">
+        <v>105000</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>42339</v>
       </c>
@@ -4643,8 +5291,38 @@
       <c r="C92" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J92" s="7">
+        <v>20000000</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>42172</v>
       </c>
@@ -4655,7 +5333,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>41981</v>
       </c>
@@ -4666,7 +5344,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>41793</v>
       </c>
@@ -4677,7 +5355,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>41478</v>
       </c>

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2C846-9BA4-614B-BDF2-9E071973986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592DE0A-75E4-9D4C-866F-C144565F0CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="460" windowWidth="24620" windowHeight="15180" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="364">
   <si>
     <t>Date</t>
   </si>
@@ -1114,6 +1114,18 @@
   </si>
   <si>
     <t>GAW Miners and ZenMiner</t>
+  </si>
+  <si>
+    <t>Sand Hill Exchange</t>
+  </si>
+  <si>
+    <t>BTC Trading Corp.</t>
+  </si>
+  <si>
+    <t>FeedZeBirds and SatoshiDICE</t>
+  </si>
+  <si>
+    <t>Bitcoin Savings and Trust</t>
   </si>
 </sst>
 </file>
@@ -1528,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5332,6 +5344,36 @@
       <c r="C93" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J93" s="7">
+        <v>20000</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
@@ -5343,6 +5385,36 @@
       <c r="C94" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J94" s="7">
+        <v>68000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
@@ -5354,6 +5426,36 @@
       <c r="C95" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J95" s="7">
+        <v>50843.92</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
@@ -5364,6 +5466,33 @@
       </c>
       <c r="C96" s="2" t="s">
         <v>190</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J96" s="7">
+        <v>4500000</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Enforcement/SecuritiesEnforcement.xlsx
+++ b/Database/Enforcement/SecuritiesEnforcement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianhaney/Desktop/SolanaCompliance/Enforcement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592DE0A-75E4-9D4C-866F-C144565F0CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E22AC7-CE28-5740-8B41-893B9E0A7586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="460" windowWidth="24620" windowHeight="15180" xr2:uid="{1CF0D871-449D-7145-B51E-287A39478D3A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="364">
   <si>
     <t>Date</t>
   </si>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A741B35-51C2-A04A-AB6F-EB5F6D4A2F39}">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5467,6 +5467,9 @@
       <c r="C96" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E96" s="2" t="s">
         <v>227</v>
       </c>
